--- a/sd-swagger/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sd-swagger/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T11:06:51+00:00</t>
+    <t>2024-03-15T13:27:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-swagger/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sd-swagger/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T13:27:56+00:00</t>
+    <t>2024-03-15T13:59:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-swagger/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/sd-swagger/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T13:59:29+00:00</t>
+    <t>2024-03-15T17:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,6 +234,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Practitioner du Modèle exposition ROR V3</t>
+  </si>
+  <si>
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
@@ -244,9 +247,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Practitioner du Modèle exposition ROR V3</t>
   </si>
   <si>
     <t/>
@@ -272,6 +272,9 @@
 dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
+    <t>Professionnel</t>
+  </si>
+  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -279,9 +282,6 @@
   </si>
   <si>
     <t>Provider</t>
-  </si>
-  <si>
-    <t>Professionnel</t>
   </si>
   <si>
     <t>Practitioner.id</t>
@@ -336,10 +336,10 @@
 </t>
   </si>
   <si>
+    <t>metadonnee</t>
+  </si>
+  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>metadonnee</t>
   </si>
   <si>
     <t>Practitioner.meta.id</t>
@@ -702,6 +702,9 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
+    <t>idNat_PS</t>
+  </si>
+  <si>
     <t>PRD-7 (or XCN.1)</t>
   </si>
   <si>
@@ -712,9 +715,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>idNat_PS</t>
   </si>
   <si>
     <t>Practitioner.identifier.id</t>
@@ -1107,6 +1107,9 @@
     <t>HumanName.prefix</t>
   </si>
   <si>
+    <t>PersonnePhysique.civilite</t>
+  </si>
+  <si>
     <t>XPN.5</t>
   </si>
   <si>
@@ -1114,9 +1117,6 @@
   </si>
   <si>
     <t>./TitleCode</t>
-  </si>
-  <si>
-    <t>PersonnePhysique.civilite</t>
   </si>
   <si>
     <t>Practitioner.name.suffix</t>
@@ -1181,6 +1181,9 @@
 cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
   </si>
   <si>
+    <t>boiteLettreMSS.adresseMSS</t>
+  </si>
+  <si>
     <t>PRT-15, STF-10, ROL-12</t>
   </si>
   <si>
@@ -1188,9 +1191,6 @@
   </si>
   <si>
     <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>boiteLettreMSS.adresseMSS</t>
   </si>
   <si>
     <t>Practitioner.telecom.id</t>
@@ -1299,13 +1299,13 @@
     <t>ContactPoint.value</t>
   </si>
   <si>
+    <t>adresseTelecom</t>
+  </si>
+  <si>
     <t>XTN.1 (or XTN.12)</t>
   </si>
   <si>
     <t>./url</t>
-  </si>
-  <si>
-    <t>adresseTelecom</t>
   </si>
   <si>
     <t>Practitioner.telecom.use</t>
@@ -1995,11 +1995,11 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="52.3828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="54.96875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="54.96875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="52.3828125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2236,10 +2236,10 @@
         <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -2344,7 +2344,7 @@
         <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>77</v>
@@ -2356,7 +2356,7 @@
         <v>77</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -2459,19 +2459,19 @@
         <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" hidden="true">
@@ -2577,10 +2577,10 @@
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM5" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>77</v>
@@ -2694,10 +2694,10 @@
         <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>77</v>
@@ -2811,10 +2811,10 @@
         <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>77</v>
@@ -2925,19 +2925,19 @@
         <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AL8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AM8" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AN8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -3045,10 +3045,10 @@
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM9" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>77</v>
@@ -3162,10 +3162,10 @@
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>77</v>
@@ -3276,13 +3276,13 @@
         <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -3393,13 +3393,13 @@
         <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3510,19 +3510,19 @@
         <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM13" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -3630,10 +3630,10 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3747,10 +3747,10 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3864,10 +3864,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3981,10 +3981,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -4332,10 +4332,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4564,10 +4564,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4681,10 +4681,10 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4797,13 +4797,13 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4916,13 +4916,13 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -5035,16 +5035,16 @@
         <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>77</v>
@@ -5152,16 +5152,16 @@
         <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>77</v>
@@ -5269,16 +5269,16 @@
         <v>272</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>77</v>
@@ -5386,16 +5386,16 @@
         <v>282</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>77</v>
@@ -5510,16 +5510,16 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM30" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AN30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -5626,16 +5626,16 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>77</v>
@@ -5744,10 +5744,10 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5861,10 +5861,10 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5977,16 +5977,16 @@
         <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>77</v>
@@ -6096,13 +6096,13 @@
         <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6213,16 +6213,16 @@
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>77</v>
@@ -6330,16 +6330,16 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -6454,10 +6454,10 @@
         <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -6562,13 +6562,13 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6681,16 +6681,16 @@
         <v>272</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>77</v>
@@ -6809,10 +6809,10 @@
         <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -6918,10 +6918,10 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -7498,16 +7498,16 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>77</v>
@@ -7623,13 +7623,13 @@
         <v>412</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AN48" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AO48" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7736,16 +7736,16 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>77</v>
@@ -7853,13 +7853,13 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>111</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7970,16 +7970,16 @@
         <v>272</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>77</v>
@@ -8089,16 +8089,16 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>77</v>
@@ -8208,16 +8208,16 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>77</v>
@@ -8325,16 +8325,16 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>77</v>
@@ -8444,16 +8444,16 @@
         <v>466</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>77</v>
@@ -8559,16 +8559,16 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>77</v>
@@ -8677,10 +8677,10 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8794,10 +8794,10 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8913,10 +8913,10 @@
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -9027,16 +9027,16 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>77</v>
@@ -9144,16 +9144,16 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>77</v>
@@ -9263,16 +9263,16 @@
         <v>272</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>77</v>
@@ -9383,10 +9383,10 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9499,16 +9499,16 @@
         <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>77</v>
